--- a/Data_Analy/Choose data/Choose_data.xlsx
+++ b/Data_Analy/Choose data/Choose_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haile/Documents/GitHub/Python_UF/Data_Analy/Choose data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7127448-E018-FB48-AC40-9F19996B6FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B62D6A6-2481-7843-87D9-38B0A52C0492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="1960" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{A4183D51-3D92-EA4B-8C0D-9AC86CEF85D3}"/>
+    <workbookView minimized="1" xWindow="12880" yWindow="2120" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{A4183D51-3D92-EA4B-8C0D-9AC86CEF85D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>FIPS</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>Sioux</t>
+  </si>
+  <si>
+    <t>ca_506</t>
+  </si>
+  <si>
+    <t>key_sewershed</t>
+  </si>
+  <si>
+    <t>va_1828</t>
   </si>
 </sst>
 </file>
@@ -170,12 +179,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,7 +505,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -637,21 +649,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132D8F51-B405-0A47-86AD-1D58F7EE2426}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -667,8 +680,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6037</v>
       </c>
@@ -685,8 +701,11 @@
         <f>D2*100000/C2</f>
         <v>354.06535660990562</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4013</v>
       </c>
@@ -704,7 +723,7 @@
         <v>420.16188472234671</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>17031</v>
       </c>
@@ -722,7 +741,7 @@
         <v>296.86035563827892</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>39041</v>
       </c>
@@ -740,7 +759,7 @@
         <v>145.33146569651538</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>51179</v>
       </c>
@@ -757,8 +776,11 @@
         <f>D7*100000/C7</f>
         <v>132.12804646721</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>36109</v>
       </c>
@@ -776,7 +798,7 @@
         <v>99.823840281855553</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
@@ -927,7 +949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A31C25A-7332-5B47-A984-50D3EEA3C12E}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>

--- a/Data_Analy/Choose data/Choose_data.xlsx
+++ b/Data_Analy/Choose data/Choose_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haile/Documents/GitHub/Python_UF/Data_Analy/Choose data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro5530/Documents/GitHub/Python_UF/Data_Analy/Choose data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B62D6A6-2481-7843-87D9-38B0A52C0492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8373CD-9989-CA46-848E-16587E54DF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="12880" yWindow="2120" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{A4183D51-3D92-EA4B-8C0D-9AC86CEF85D3}"/>
+    <workbookView xWindow="17360" yWindow="2460" windowWidth="27640" windowHeight="16940" xr2:uid="{A4183D51-3D92-EA4B-8C0D-9AC86CEF85D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>FIPS</t>
   </si>
@@ -502,21 +502,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93AACD7-D557-4D40-8358-658DF5970118}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,8 +533,11 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>51640</v>
       </c>
@@ -551,7 +555,7 @@
         <v>1354.970852371199</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>48311</v>
       </c>
@@ -569,7 +573,7 @@
         <v>1345.8950201884254</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>21201</v>
       </c>
@@ -587,7 +591,7 @@
         <v>1091.0815939278937</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>53033</v>
       </c>
@@ -605,7 +609,7 @@
         <v>155.89613198258863</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6087</v>
       </c>
@@ -623,7 +627,7 @@
         <v>101.02008323176423</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>15007</v>
       </c>
@@ -651,7 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132D8F51-B405-0A47-86AD-1D58F7EE2426}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/Data_Analy/Choose data/Choose_data.xlsx
+++ b/Data_Analy/Choose data/Choose_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro5530/Documents/GitHub/Python_UF/Data_Analy/Choose data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8373CD-9989-CA46-848E-16587E54DF99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3A7769-EC93-2742-BAA1-467DB60D5C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="2460" windowWidth="27640" windowHeight="16940" xr2:uid="{A4183D51-3D92-EA4B-8C0D-9AC86CEF85D3}"/>
+    <workbookView xWindow="22340" yWindow="3460" windowWidth="27640" windowHeight="16940" xr2:uid="{A4183D51-3D92-EA4B-8C0D-9AC86CEF85D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>FIPS</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>va_1828</t>
+  </si>
+  <si>
+    <t>Treutlen</t>
+  </si>
+  <si>
+    <t>ga_2418</t>
   </si>
 </sst>
 </file>
@@ -502,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93AACD7-D557-4D40-8358-658DF5970118}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,6 +649,27 @@
       <c r="E8" s="2">
         <f>D8*100000/C8</f>
         <v>69.162989501058192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>13283</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>6901</v>
+      </c>
+      <c r="D11">
+        <v>71</v>
+      </c>
+      <c r="E11">
+        <f>D11*100000/C11</f>
+        <v>1028.8364005216636</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Analy/Choose data/Choose_data.xlsx
+++ b/Data_Analy/Choose data/Choose_data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro5530/Documents/GitHub/Python_UF/Data_Analy/Choose data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3A7769-EC93-2742-BAA1-467DB60D5C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4680FA1C-7F21-D246-AF6B-7216DEBCC46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22340" yWindow="3460" windowWidth="27640" windowHeight="16940" xr2:uid="{A4183D51-3D92-EA4B-8C0D-9AC86CEF85D3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" activeTab="4" xr2:uid="{A4183D51-3D92-EA4B-8C0D-9AC86CEF85D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
   <si>
     <t>FIPS</t>
   </si>
@@ -136,13 +137,79 @@
   </si>
   <si>
     <t>ga_2418</t>
+  </si>
+  <si>
+    <t>ca_495</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Province_State</t>
+  </si>
+  <si>
+    <t>Cumulative deaths by 03/09/2023</t>
+  </si>
+  <si>
+    <t>cumulative_deaths_by_100k_pop</t>
+  </si>
+  <si>
+    <t>Cumulative confirmed cases by 03/09/2023</t>
+  </si>
+  <si>
+    <t>cumulative_confirmed_cases_by_100k_pop</t>
+  </si>
+  <si>
+    <t>ca_1019</t>
+  </si>
+  <si>
+    <t>San Luis Obispo</t>
+  </si>
+  <si>
+    <t>ca_1230</t>
+  </si>
+  <si>
+    <t>Fresno</t>
+  </si>
+  <si>
+    <t>Stanislaus</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Stoddard</t>
+  </si>
+  <si>
+    <t>mo_130</t>
+  </si>
+  <si>
+    <t>Boone</t>
+  </si>
+  <si>
+    <t>mo_119</t>
+  </si>
+  <si>
+    <t>mo_114</t>
+  </si>
+  <si>
+    <t>ca_258</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -160,6 +227,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,13 +259,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -510,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93AACD7-D557-4D40-8358-658DF5970118}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -597,79 +681,82 @@
         <v>1091.0815939278937</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>13283</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>6901</v>
+      </c>
+      <c r="D5">
+        <v>71</v>
+      </c>
+      <c r="E5" s="6">
+        <f>D5*100000/C5</f>
+        <v>1028.8364005216636</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>53033</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>2252782</v>
       </c>
-      <c r="D6">
+      <c r="D9">
         <v>3512</v>
       </c>
-      <c r="E6" s="2">
-        <f>D6*100000/C6</f>
+      <c r="E9" s="2">
+        <f>D9*100000/C9</f>
         <v>155.89613198258863</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>6087</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C10">
         <v>273213</v>
       </c>
-      <c r="D7">
+      <c r="D10">
         <v>276</v>
       </c>
-      <c r="E7" s="2">
-        <f>D7*100000/C7</f>
+      <c r="E10" s="2">
+        <f>D10*100000/C10</f>
         <v>101.02008323176423</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>15007</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>72293</v>
-      </c>
-      <c r="D8">
-        <v>50</v>
-      </c>
-      <c r="E8" s="2">
-        <f>D8*100000/C8</f>
-        <v>69.162989501058192</v>
+      <c r="F10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>13283</v>
+        <v>15007</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>6901</v>
+        <v>72293</v>
       </c>
       <c r="D11">
-        <v>71</v>
-      </c>
-      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2">
         <f>D11*100000/C11</f>
-        <v>1028.8364005216636</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
+        <v>69.162989501058192</v>
       </c>
     </row>
   </sheetData>
@@ -1117,4 +1204,457 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDC251F-A13C-AA45-95AB-44BE620E65F2}">
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="18.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="29" style="6" customWidth="1"/>
+    <col min="9" max="9" width="37" customWidth="1"/>
+    <col min="10" max="10" width="37.83203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>29207</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="6">
+        <v>29025</v>
+      </c>
+      <c r="E21" s="6">
+        <v>152</v>
+      </c>
+      <c r="F21" s="6">
+        <f>E21*100000/D21</f>
+        <v>523.6864771748493</v>
+      </c>
+      <c r="G21" s="6">
+        <v>29207</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="6">
+        <v>7191</v>
+      </c>
+      <c r="J21" s="6">
+        <f>I21*100000/D21</f>
+        <v>24775.193798449611</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>29083</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23">
+        <v>21824</v>
+      </c>
+      <c r="E23">
+        <v>96</v>
+      </c>
+      <c r="F23" s="6">
+        <f>E23*100000/D23</f>
+        <v>439.88269794721407</v>
+      </c>
+      <c r="G23">
+        <v>29083</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23">
+        <v>7064</v>
+      </c>
+      <c r="J23" s="6">
+        <f>I23*100000/D23</f>
+        <v>32368.035190615836</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6099</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>550660</v>
+      </c>
+      <c r="E26">
+        <v>1845</v>
+      </c>
+      <c r="F26" s="6">
+        <f>E26*100000/D26</f>
+        <v>335.05248247557478</v>
+      </c>
+      <c r="G26">
+        <v>6099</v>
+      </c>
+      <c r="H26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26">
+        <v>168343</v>
+      </c>
+      <c r="J26" s="6">
+        <f>I26*100000/D26</f>
+        <v>30571.132822431264</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>6019</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>999101</v>
+      </c>
+      <c r="E28">
+        <v>3001</v>
+      </c>
+      <c r="F28" s="6">
+        <f>E28*100000/D28</f>
+        <v>300.37003265936079</v>
+      </c>
+      <c r="G28">
+        <v>6019</v>
+      </c>
+      <c r="H28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28">
+        <v>329460</v>
+      </c>
+      <c r="J28" s="6">
+        <f>I28*100000/D28</f>
+        <v>32975.645104949348</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>17031</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29">
+        <v>5150233</v>
+      </c>
+      <c r="E29">
+        <v>15289</v>
+      </c>
+      <c r="F29" s="6">
+        <f>E29*100000/D29</f>
+        <v>296.86035563827892</v>
+      </c>
+      <c r="G29">
+        <v>17031</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29">
+        <v>1533935</v>
+      </c>
+      <c r="J29" s="6">
+        <f>I29*100000/D29</f>
+        <v>29783.798131074847</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>6033</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30">
+        <v>64386</v>
+      </c>
+      <c r="E30" s="9">
+        <v>157</v>
+      </c>
+      <c r="F30" s="6">
+        <f>E30*100000/D30</f>
+        <v>243.84182896903053</v>
+      </c>
+      <c r="G30">
+        <v>6033</v>
+      </c>
+      <c r="H30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30">
+        <v>14941</v>
+      </c>
+      <c r="J30" s="6">
+        <f>I30*100000/D30</f>
+        <v>23205.355201441307</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>6079</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32">
+        <v>283111</v>
+      </c>
+      <c r="E32">
+        <v>561</v>
+      </c>
+      <c r="F32" s="6">
+        <f>E32*100000/D32</f>
+        <v>198.15549378159096</v>
+      </c>
+      <c r="G32">
+        <v>6079</v>
+      </c>
+      <c r="H32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32">
+        <v>74632</v>
+      </c>
+      <c r="J32" s="6">
+        <f>I32*100000/D32</f>
+        <v>26361.391821582347</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>29019</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="6">
+        <v>180463</v>
+      </c>
+      <c r="E33" s="6">
+        <v>299</v>
+      </c>
+      <c r="F33" s="6">
+        <f>E33*100000/D33</f>
+        <v>165.68493264547303</v>
+      </c>
+      <c r="G33" s="6">
+        <v>29019</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="6">
+        <v>53197</v>
+      </c>
+      <c r="J33" s="6">
+        <f>I33*100000/D33</f>
+        <v>29478.064755656284</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>6099</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39">
+        <v>550660</v>
+      </c>
+      <c r="E39">
+        <v>1845</v>
+      </c>
+      <c r="F39" s="6">
+        <v>335.05248247557478</v>
+      </c>
+      <c r="G39">
+        <v>6099</v>
+      </c>
+      <c r="H39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I39">
+        <v>168343</v>
+      </c>
+      <c r="J39" s="6">
+        <v>30571.132822431264</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9">
+        <v>29019</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="9">
+        <v>180463</v>
+      </c>
+      <c r="E41" s="9">
+        <v>299</v>
+      </c>
+      <c r="F41" s="6">
+        <v>165.68493264547303</v>
+      </c>
+      <c r="G41" s="9">
+        <v>29019</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I41" s="9">
+        <v>53197</v>
+      </c>
+      <c r="J41" s="9">
+        <v>29478.064755656284</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>